--- a/data.xlsx
+++ b/data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73479,6 +73479,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="B2519" t="n">
+        <v>438.63</v>
+      </c>
+      <c r="C2519" t="n">
+        <v>442.64</v>
+      </c>
+      <c r="D2519" t="n">
+        <v>438.3</v>
+      </c>
+      <c r="E2519" t="n">
+        <v>438.55</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>438.55</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>86134178</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
